--- a/data/hotels_by_city/Houston/Houston_shard_8.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d239356-Reviews-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Suites-Spring-N-Houston.h16458132.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,628 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r586943263-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239356</t>
+  </si>
+  <si>
+    <t>586943263</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The front desk was very friendly and made me feel at ease. The room was nice and clean, I would definitely recommend this hotel. I will be staying at this hotel for all of my trips to Houston Texas in the future .</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r586685144-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586685144</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Good location, average-poor room quality, nice staffs</t>
+  </si>
+  <si>
+    <t>The good: Staffs (front desk/reception and room service) were very nice and willing to help. The not so good: Room was in poor condition: uneven and smelly carpet, stains on the floor and the recliner. The hallway was full of smoking smell. The beds were very uncomfortable. I could not sleep well as it was shaking badly if me or my wife moved or change the posture. The uncomfortable: they charged my card prior to my arrival without contacting me for my approval, although the booking confirmation did state clearly that they could only charge my card when I check in!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r583349346-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583349346</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>I reserved room to attend my friends only child wedding.  The room rates are good but rooms need to be updated. The carpet is awful,need to be removed ..starting with the hallway.  From paint on walls to bedding needs to be addressed.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r567888066-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567888066</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Clean but dated</t>
+  </si>
+  <si>
+    <t>Had to change from first room because room had a strong chemical smell . Then I was in a room that smell like feet but I stayed. Top cover need to be clean it was dirty .I left note and it look like they change it but I also brought me a cover at Walmart just in cae</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r567277026-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567277026</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Last minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decided to stay last minute and this was one of the best last minute places I have ever stayed in. Room was very clean and staff was friendly. The entire facility over all was nice and newly done.Will definitely stay here again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r567232525-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567232525</t>
+  </si>
+  <si>
+    <t>Honestly worst Hotel I've ever stayed at.</t>
+  </si>
+  <si>
+    <t>The room itself wasn't horrible. Decent enough but the service was HORRIBLE. The overnight staff, a middle aged man that wore a blue shirt was disrespectful, refused to recode our cards when they wouldn't work for our rooms making us have to wait for the next person on shift, wouldn't give us clean towels for the pool or our personal room ( we stayed 2 nights and after the first night needed new personal towels ) and when told that we wouldn't leave a good review due to the lack of hospitality and service he said he was fine with that. We were here out of state working and every other hotel was wonderful. This is honestly the worst hotel experience. Would not recommend at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room itself wasn't horrible. Decent enough but the service was HORRIBLE. The overnight staff, a middle aged man that wore a blue shirt was disrespectful, refused to recode our cards when they wouldn't work for our rooms making us have to wait for the next person on shift, wouldn't give us clean towels for the pool or our personal room ( we stayed 2 nights and after the first night needed new personal towels ) and when told that we wouldn't leave a good review due to the lack of hospitality and service he said he was fine with that. We were here out of state working and every other hotel was wonderful. This is honestly the worst hotel experience. Would not recommend at all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r548626501-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548626501</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Awesome place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and confortable rooms the beds where really confortable for sleeping and other activities the location was close to plenty of restaurant for good eating the hot tub was really good and the pool was really nice as well </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r533241730-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533241730</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>Everything was good except for the staff lady cleaning the breakfast area, everyone was eating and she started turning everything off and putting away ... I thought it was pretty rude of her specially since they were feeding the kids</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r527728124-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527728124</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks can be deceiving </t>
+  </si>
+  <si>
+    <t>Definitely a place I don't intend to come back to. Pictures they show on their site might be nice but up close, not so much. As well as a musty odor just as you walk in, door not locking from the inside and the bed feeling like it couldn't hold itself together and the couch alone is just disgusting.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r410534068-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410534068</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>One of our 'Best Value' hotel stays</t>
+  </si>
+  <si>
+    <t>This was just a 1 night stop over between Houston airport and Galveston. Reception was friendly and welcoming, room was large, comfortable and clean and with it's own WiFi router so signal was good. Lots of places to eat nearby and easy to find, just off the main highway. Excellent value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>sam p, Manager at Americas Best Value Inn &amp; Suites Houston FM 1960/I-45, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>This was just a 1 night stop over between Houston airport and Galveston. Reception was friendly and welcoming, room was large, comfortable and clean and with it's own WiFi router so signal was good. Lots of places to eat nearby and easy to find, just off the main highway. Excellent value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r371581325-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371581325</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome facilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super friendly desk clerk. Best affordable prices. In door swimming pool hours and great breakfast. Clean and fresh rooms. Taco bell and burger king right besides. Well lit and sweet aromas all over the place. Totally loved it. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r363825434-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363825434</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Perfectly adequate for the money.</t>
+  </si>
+  <si>
+    <t>The room we had was at the back of the hotel and it was quiet.  The room was spacious and clean but the decor was a bit tired.  This was our first visit to the USA and the staff of the hotel were very friendly and helpful; giving advice and ordering taxis for us. The included breakfast was a bit limited in range but adequate.  The pool and the jaccussi  were fine.My only problem was that the hotel is a bit isolated unless you have a car.  Although that seemed true for most of Houston!  Perhaps we were a bit naive thinking that we would be able to walk to places.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The room we had was at the back of the hotel and it was quiet.  The room was spacious and clean but the decor was a bit tired.  This was our first visit to the USA and the staff of the hotel were very friendly and helpful; giving advice and ordering taxis for us. The included breakfast was a bit limited in range but adequate.  The pool and the jaccussi  were fine.My only problem was that the hotel is a bit isolated unless you have a car.  Although that seemed true for most of Houston!  Perhaps we were a bit naive thinking that we would be able to walk to places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r294718423-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294718423</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Nightmare in the roach motel</t>
+  </si>
+  <si>
+    <t>Let me Start off by saying I have stayed at this place numerous times. I have even sent visiting family here to stay. Never had one complaint until July 31st 2015, I sent my daughter to the take a shower. She comes running and screaming its bugs in there. When i look in the bathroom, there they were 3 of the biggest roaches ever just circling the sink! I immediately call the front desk and complain. Their only response was to bring me a big can of raid. And of course the roaches are no where in sight so he left the can. I asked the manager for a refund he tells me because you're kids were in the pool making noise and it clearly states on the card no refunds after 15 minutes. Luckily I paid with my cc and was able to get my money back. They have forever lost a customerMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Let me Start off by saying I have stayed at this place numerous times. I have even sent visiting family here to stay. Never had one complaint until July 31st 2015, I sent my daughter to the take a shower. She comes running and screaming its bugs in there. When i look in the bathroom, there they were 3 of the biggest roaches ever just circling the sink! I immediately call the front desk and complain. Their only response was to bring me a big can of raid. And of course the roaches are no where in sight so he left the can. I asked the manager for a refund he tells me because you're kids were in the pool making noise and it clearly states on the card no refunds after 15 minutes. Luckily I paid with my cc and was able to get my money back. They have forever lost a customerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r249788146-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249788146</t>
+  </si>
+  <si>
+    <t>01/17/2015</t>
+  </si>
+  <si>
+    <t>Perfect hotel stay</t>
+  </si>
+  <si>
+    <t>Five stars for value and convenience. Parking was close and convenient. Online reservations and check-in were a breeze. Hotel convenient to hospital where we were visiting. Rooms were spacious and very clean. Heating and air conditioning ran perfectly. Microwave and in-room fridge were new, as was the nice sized flat screen television. Tons of channels on tv. Nice and quiet rooms. Beds and pillows very comfortable. Great breakfast items and coffee and juice. This was a great stay and an excellent value.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>sam p, Manager at Americas Best Value Inn &amp; Suites Houston FM 1960/I-45, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Five stars for value and convenience. Parking was close and convenient. Online reservations and check-in were a breeze. Hotel convenient to hospital where we were visiting. Rooms were spacious and very clean. Heating and air conditioning ran perfectly. Microwave and in-room fridge were new, as was the nice sized flat screen television. Tons of channels on tv. Nice and quiet rooms. Beds and pillows very comfortable. Great breakfast items and coffee and juice. This was a great stay and an excellent value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r240739912-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240739912</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>If you want to stay for a week...try it !!</t>
+  </si>
+  <si>
+    <t>We were on a visit to Houston for a week and wanted to stay some where in FM1960 that had strong internet, safe and accessible place. Upon reading reviews I had a second thought about it but still decided to go with it..Here is what i found.&gt;&gt; PROS1. Its gated with two gates(they were open most of time) with security camera's2. Clean parking slot with enough parking space.3. Rooms are ok and spacious.4. When you book for a week you get a good deal.5. The area is safe and lot of restaurants around (you name it !!).6. Internet connection is SUPER STRONG and never got disconnected as I was working remote for a week.&gt;&gt;CONS1. Breakfast is not good or they way its arranged is shabby. All six days we had the same items.So summing it up I would say the best part is its worth the money you spend for such a place considering safety and accessibility when you are new in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We were on a visit to Houston for a week and wanted to stay some where in FM1960 that had strong internet, safe and accessible place. Upon reading reviews I had a second thought about it but still decided to go with it..Here is what i found.&gt;&gt; PROS1. Its gated with two gates(they were open most of time) with security camera's2. Clean parking slot with enough parking space.3. Rooms are ok and spacious.4. When you book for a week you get a good deal.5. The area is safe and lot of restaurants around (you name it !!).6. Internet connection is SUPER STRONG and never got disconnected as I was working remote for a week.&gt;&gt;CONS1. Breakfast is not good or they way its arranged is shabby. All six days we had the same items.So summing it up I would say the best part is its worth the money you spend for such a place considering safety and accessibility when you are new in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r229358709-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229358709</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff.</t>
+  </si>
+  <si>
+    <t>We felt so relaxed here. Spacious room. About 20 miles north of downtown Houston. Clean hotel. Strong internet connection. Enjoyed the pool but had to let the hot tub heat up for 30 min. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>sam p, Manager at Americas Best Value Inn &amp; Suites Houston FM 1960/I-45, responded to this reviewResponded October 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2014</t>
+  </si>
+  <si>
+    <t>We felt so relaxed here. Spacious room. About 20 miles north of downtown Houston. Clean hotel. Strong internet connection. Enjoyed the pool but had to let the hot tub heat up for 30 min. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r224332403-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224332403</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Nightmare!!</t>
+  </si>
+  <si>
+    <t>Windows cannot open which is very unhealthySmelly rooms, rooms smell as if the carpet is 200 years oldBad sevice, no one at the reception and breakfast times were not mentionedHares in beds and towels, disgustingAirco did not work, hot moisty are came inNo facilities, at allUnsafe transport to airfieldMoreShow less</t>
+  </si>
+  <si>
+    <t>sam p, Manager at Americas Best Value Inn &amp; Suites Houston FM 1960/I-45, responded to this reviewResponded September 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2014</t>
+  </si>
+  <si>
+    <t>Windows cannot open which is very unhealthySmelly rooms, rooms smell as if the carpet is 200 years oldBad sevice, no one at the reception and breakfast times were not mentionedHares in beds and towels, disgustingAirco did not work, hot moisty are came inNo facilities, at allUnsafe transport to airfieldMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r211409757-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211409757</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Super value</t>
+  </si>
+  <si>
+    <t>1st Time at this chain. Have seen many will awe-full reviews, this one had some "decent" reviews from a few senior contributors, so I gambled on a weeks stay.
+Totally shocked and will be back when in N. Houston.  Great location 30sec from I-45, but not close enough to hear it.
+Staff incredibly nice to start with. I had an upstairs room for 5 days and it was spotless when I arrived. Sure there are a few maintenance things like paint, chipped corner, but overall the motel is in good shape. Carpet look fine, not dingy.
+Fridge and microwave in the room where welcome. Plastic toilet lid I didn't care for (it was also only mounted to one side, maint issue)  Hot water was near instant and almost to much pressure, not common even in high $$ hotels.
+Internet was very fast, even up stairs at the end. BTW 3 story motel and comes with an elevator!!
+Bed was comfortable on the firm side, which I like, no sag.  Nice 32" LCD TV with Dishnetwork, so easy menu since I use dishn at home.
+Inside pool I didn't use, but looked at it at several different times, never saw it overflowing with people and it always looked clean.
+I work nights and sleep days, I never heard another soul once I got in my room and thank goodness, the cleaning staff here knows what "DO NOT DISTURB MEANS"
+Parking lot...1st Time at this chain. Have seen many will awe-full reviews, this one had some "decent" reviews from a few senior contributors, so I gambled on a weeks stay.Totally shocked and will be back when in N. Houston.  Great location 30sec from I-45, but not close enough to hear it.Staff incredibly nice to start with. I had an upstairs room for 5 days and it was spotless when I arrived. Sure there are a few maintenance things like paint, chipped corner, but overall the motel is in good shape. Carpet look fine, not dingy.Fridge and microwave in the room where welcome. Plastic toilet lid I didn't care for (it was also only mounted to one side, maint issue)  Hot water was near instant and almost to much pressure, not common even in high $$ hotels.Internet was very fast, even up stairs at the end. BTW 3 story motel and comes with an elevator!!Bed was comfortable on the firm side, which I like, no sag.  Nice 32" LCD TV with Dishnetwork, so easy menu since I use dishn at home.Inside pool I didn't use, but looked at it at several different times, never saw it overflowing with people and it always looked clean.I work nights and sleep days, I never heard another soul once I got in my room and thank goodness, the cleaning staff here knows what "DO NOT DISTURB MEANS"Parking lot has 2 gated entrances and the property is fenced, but I never saw the gates closed, but didnt see any "riff-raff" either. If your pulling a trailer, you will have to park in the Burger King lot, I did with a 30' trailer and had no issues.Tons of food with-in a half mile if you head West from the motel on fm1960, adjacent to the motel is Burger King, Taco Bell and a BBQ place I didn't have time to try. A coupe blocks away are, luby's ,starbucks, Blackeye Pea and too many eateries to listAM breakfast is basic and minimal. Seating is also limited, so in this area they could really improve.I stayed at a corp rate of $55, same as listed on their website and in my opinion, it is a super deal for this property..BTW, I would have no problem if my wife or daughter had to stay here, as long as they where prudent to the hours they are outside (after all, this is still Houston)I also have to say this, since I have been critical in the past of some of the hotels owners "customs". The 2 brothers that own and operate this Motel (Patel's) Seem to take your stay seriously, they are very cordial, helpful as was any staff I came in contact with. They clearly are trying to meet American standards and have done well.I don't know about other hotels in this chain, but because of this one, I will certainly consider them in the future.Save yourself half what others want for less motel, this is a good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>1st Time at this chain. Have seen many will awe-full reviews, this one had some "decent" reviews from a few senior contributors, so I gambled on a weeks stay.
+Totally shocked and will be back when in N. Houston.  Great location 30sec from I-45, but not close enough to hear it.
+Staff incredibly nice to start with. I had an upstairs room for 5 days and it was spotless when I arrived. Sure there are a few maintenance things like paint, chipped corner, but overall the motel is in good shape. Carpet look fine, not dingy.
+Fridge and microwave in the room where welcome. Plastic toilet lid I didn't care for (it was also only mounted to one side, maint issue)  Hot water was near instant and almost to much pressure, not common even in high $$ hotels.
+Internet was very fast, even up stairs at the end. BTW 3 story motel and comes with an elevator!!
+Bed was comfortable on the firm side, which I like, no sag.  Nice 32" LCD TV with Dishnetwork, so easy menu since I use dishn at home.
+Inside pool I didn't use, but looked at it at several different times, never saw it overflowing with people and it always looked clean.
+I work nights and sleep days, I never heard another soul once I got in my room and thank goodness, the cleaning staff here knows what "DO NOT DISTURB MEANS"
+Parking lot...1st Time at this chain. Have seen many will awe-full reviews, this one had some "decent" reviews from a few senior contributors, so I gambled on a weeks stay.Totally shocked and will be back when in N. Houston.  Great location 30sec from I-45, but not close enough to hear it.Staff incredibly nice to start with. I had an upstairs room for 5 days and it was spotless when I arrived. Sure there are a few maintenance things like paint, chipped corner, but overall the motel is in good shape. Carpet look fine, not dingy.Fridge and microwave in the room where welcome. Plastic toilet lid I didn't care for (it was also only mounted to one side, maint issue)  Hot water was near instant and almost to much pressure, not common even in high $$ hotels.Internet was very fast, even up stairs at the end. BTW 3 story motel and comes with an elevator!!Bed was comfortable on the firm side, which I like, no sag.  Nice 32" LCD TV with Dishnetwork, so easy menu since I use dishn at home.Inside pool I didn't use, but looked at it at several different times, never saw it overflowing with people and it always looked clean.I work nights and sleep days, I never heard another soul once I got in my room and thank goodness, the cleaning staff here knows what "DO NOT DISTURB MEANS"Parking lot has 2 gated entrances and the property is fenced, but I never saw the gates closed, but didnt see any "riff-raff" either. If your pulling a trailer, you will have to park in the Burger King lot, I did with a 30' trailer and had no issues.Tons of food with-in a half mile if you head West from the motel on fm1960, adjacent to the motel is Burger King, Taco Bell and a BBQ place I didn't have time to try. A coupe blocks away are, luby's ,starbucks, Blackeye Pea and too many eateries to listAM breakfast is basic and minimal. Seating is also limited, so in this area they could really improve.I stayed at a corp rate of $55, same as listed on their website and in my opinion, it is a super deal for this property..BTW, I would have no problem if my wife or daughter had to stay here, as long as they where prudent to the hours they are outside (after all, this is still Houston)I also have to say this, since I have been critical in the past of some of the hotels owners "customs". The 2 brothers that own and operate this Motel (Patel's) Seem to take your stay seriously, they are very cordial, helpful as was any staff I came in contact with. They clearly are trying to meet American standards and have done well.I don't know about other hotels in this chain, but because of this one, I will certainly consider them in the future.Save yourself half what others want for less motel, this is a good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r196951497-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196951497</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Worst experice EVER!!!!!</t>
+  </si>
+  <si>
+    <t>Me and my husband went to this place to get a night away after having a hectic wedding weekend.....the guy gave us our room key and come to find out there was some one already in that room, so we told him and then he gave us another key and my husband asked if there was for sure no one in this room which he could not say there wasn't for sure, and my husband just simply made the remark if there is some one in this room I want my money back and will go some where else needless to say the guy got VERY rude and said I will just give your money back now!!! THE STAFF AT THE WINDOW NEEDS TO LEARN HOW TO TREAT PEOPLE THAT WAS RIDICOULOUS I WOULD NEVER SUGGEST PEOPLE TO STAY THERE.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my husband went to this place to get a night away after having a hectic wedding weekend.....the guy gave us our room key and come to find out there was some one already in that room, so we told him and then he gave us another key and my husband asked if there was for sure no one in this room which he could not say there wasn't for sure, and my husband just simply made the remark if there is some one in this room I want my money back and will go some where else needless to say the guy got VERY rude and said I will just give your money back now!!! THE STAFF AT THE WINDOW NEEDS TO LEARN HOW TO TREAT PEOPLE THAT WAS RIDICOULOUS I WOULD NEVER SUGGEST PEOPLE TO STAY THERE.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r165954010-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165954010</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>OMG this place is perfect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love this hotel so much I want to buy a room and just live here. Very nice and wonderful staff. Hotel is quiet,clean,soft and comfortable king size bed and satellite HD TV. Spacious bathroom,refrigerator, coffee maker,microwave and cold air conditioning. I highly recommend to anyone. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r158066482-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158066482</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>No expectations going in; great stay considering it was last minute</t>
+  </si>
+  <si>
+    <t>I traveled to Houston without a hotel room booked.  I came across this property at about 12:30 a.m. and checked to see the availability and price.  All they had that was non-smoking was a double queen.  It was about $70 which worked for me since it was so late.  The woman at the reservation desk was very friendly.  I got up to my room expecting to see dirt and bugs.  To my pleasant surprise, the room was quite clean.  It had a really nice flat-screen TV, a desk, couch, table, and dresser.  I was on the second floor, and the window looking outside had two huge spiderweb cracks in it.  Regardless, I felt safe.  The breakfast was limited and the waffles were nasty. I took one bite and spit it out as it tasted like the batter had gone sour.  Bottom-line:  It was last minute, it was relatively clean, nobody bothered me, I slept well, the room was quiet, it was close to a lot of places to eat and shop, and the staff was friendly.  If I was planning a visit to Houston, I would probably look for another place to stay.  If I was in the same situation (last-minute hotel searching) I would make a b-line to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I traveled to Houston without a hotel room booked.  I came across this property at about 12:30 a.m. and checked to see the availability and price.  All they had that was non-smoking was a double queen.  It was about $70 which worked for me since it was so late.  The woman at the reservation desk was very friendly.  I got up to my room expecting to see dirt and bugs.  To my pleasant surprise, the room was quite clean.  It had a really nice flat-screen TV, a desk, couch, table, and dresser.  I was on the second floor, and the window looking outside had two huge spiderweb cracks in it.  Regardless, I felt safe.  The breakfast was limited and the waffles were nasty. I took one bite and spit it out as it tasted like the batter had gone sour.  Bottom-line:  It was last minute, it was relatively clean, nobody bothered me, I slept well, the room was quiet, it was close to a lot of places to eat and shop, and the staff was friendly.  If I was planning a visit to Houston, I would probably look for another place to stay.  If I was in the same situation (last-minute hotel searching) I would make a b-line to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r153080631-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153080631</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Perfect for my needs</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for a 3 day business trip and was pleasantly surprised.  As always, I read the reviews and have concern with some of the negative comments, but as the old saying goes, "You can't please everyone."  The front desk was terrific and friendly and went out of their way to answer my questions and direct me to good eateries, gym, etc.  My room was very comfortable and spotless and housekeeping even asked me if I would like anything else.  Nice amenities and free wireless, comfortable bed and quiet.  Also, felt safe and secure during my stay.  Yes, there is some room construction on the first floor with noise during the day, so that may be an issue for some.  Great value for the inexpensive rate.  There's also an indoor pool, which I did not use but looked very inviting.  And, a lot of great restaurants within walking distance.  It's not the Ritz Carlton, but it is a very well managed budget property and the management is doing a great job.  It will be my hotel of choice when I return to Houston for business.   Only down side, no coffee maker in the room which I like, but I visited a nearby thrift shop and bought one for $5.00!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for a 3 day business trip and was pleasantly surprised.  As always, I read the reviews and have concern with some of the negative comments, but as the old saying goes, "You can't please everyone."  The front desk was terrific and friendly and went out of their way to answer my questions and direct me to good eateries, gym, etc.  My room was very comfortable and spotless and housekeeping even asked me if I would like anything else.  Nice amenities and free wireless, comfortable bed and quiet.  Also, felt safe and secure during my stay.  Yes, there is some room construction on the first floor with noise during the day, so that may be an issue for some.  Great value for the inexpensive rate.  There's also an indoor pool, which I did not use but looked very inviting.  And, a lot of great restaurants within walking distance.  It's not the Ritz Carlton, but it is a very well managed budget property and the management is doing a great job.  It will be my hotel of choice when I return to Houston for business.   Only down side, no coffee maker in the room which I like, but I visited a nearby thrift shop and bought one for $5.00!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r149032958-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149032958</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Typical inexpensive hotel</t>
+  </si>
+  <si>
+    <t>I stayed here a couple of nights to visit my mom down the street in the hospital. It's was cheap and convenient. I previously stayed at a different motel across the street for the same low price. I thought I would try this one since it offered complimentary breakfast and has an indoor pool. The room was not as nice but they are under a renovation. I was put in a room as far away from the work but that's all during the day and I was just sleeping there. The room was large with a king bed, couch, mini fridge, and microwave. The check in price was $60 but listed on Internet for $45. They honored the Internet price and saved me $30. This is a typical low cost place and got what I expected and was comfortable with. If you want fancy then go elsewhere and pay a lot more. I was neither disappointed or impressed. I would stay here again if necessary but I hope I don't have to because that would mean my mom is back in the hospital. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here a couple of nights to visit my mom down the street in the hospital. It's was cheap and convenient. I previously stayed at a different motel across the street for the same low price. I thought I would try this one since it offered complimentary breakfast and has an indoor pool. The room was not as nice but they are under a renovation. I was put in a room as far away from the work but that's all during the day and I was just sleeping there. The room was large with a king bed, couch, mini fridge, and microwave. The check in price was $60 but listed on Internet for $45. They honored the Internet price and saved me $30. This is a typical low cost place and got what I expected and was comfortable with. If you want fancy then go elsewhere and pay a lot more. I was neither disappointed or impressed. I would stay here again if necessary but I hope I don't have to because that would mean my mom is back in the hospital. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r135010408-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135010408</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>If you are looking for a clean and cheap room, this is it. Thin sheets, no shampoo,  but cold air. Was afraid to use swimming pool. Security cameras in parking lot were shot out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r119222602-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119222602</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Good value motel</t>
+  </si>
+  <si>
+    <t>Good value basic motel, clean and quiet, comfortable beds.  Nice toiletries, helpful staff and good breakfast.  All you need for a 1 night stay.  Would stay again.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r108388815-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>108388815</t>
+  </si>
+  <si>
+    <t>05/15/2011</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it is close to Northwest Houston Medical Center, where our daughter had surgery. The rooms were large and clean, had a microwave and small fridge. The breakfast suited our needs for a quick bite. We had toast and cold cereal, but there were other choices. Coffee was surprisingly good. Front desk staff were helpful and professional. Our grandson enjoyed the pool and hot tub, which were well kept. Plenty of restaurants and a grocery store nearby.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r61952674-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>61952674</t>
+  </si>
+  <si>
+    <t>04/19/2010</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>My family thoroughly enjoyed our stay at this hotel. There is not one negative I could point at about this hotel.The location is ideal if you are looking for something on the North end of Houston.  The staff was wonderful, the rooms were clean, the price was very attractive, and there was ample parking.I travel to Houston often and tried this hotel because I was with my family.  I will now be using this hotel as my first choice when I return.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r38160089-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>38160089</t>
+  </si>
+  <si>
+    <t>08/19/2009</t>
+  </si>
+  <si>
+    <t>This is a truely GREAT place to stay.</t>
+  </si>
+  <si>
+    <t>America Best Value Inn at 609 FM 1960 West Houston,TxReally lived up to it's name !!We didn't know what to expect . This hotel was $25 cheaper then the hotel that we usually stay in .  Wow , what a great surprise.  The rooms were clean and large. Some rooms a lot larger then others even. We stayed in 205 , other family in 204. 204 was a lot larger eventhough ours eventhough ours was still a large room . The people that worked there were great and did things to make our stay even more enjoyable . The breakfast was great also which really amazed us because the room was such a graat price.  The swimming pool is indoors and not real big but worked great for us.  It is one of the view places we have stayed that had great lights in the bathroom .  You could see enough to pluck your eye brows and put you make up on.  Our family got in a discussion with how old the place was . So many things made it look new but the landscaping looked fully mature.  Also we were able to walk to resturants and  grocery stores and Wal-greens are right down the street.Our family had 6 rooms and and 17 people and we all loved it .Great job American Value Inn on FM 1960. [--]MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>America Best Value Inn at 609 FM 1960 West Houston,TxReally lived up to it's name !!We didn't know what to expect . This hotel was $25 cheaper then the hotel that we usually stay in .  Wow , what a great surprise.  The rooms were clean and large. Some rooms a lot larger then others even. We stayed in 205 , other family in 204. 204 was a lot larger eventhough ours eventhough ours was still a large room . The people that worked there were great and did things to make our stay even more enjoyable . The breakfast was great also which really amazed us because the room was such a graat price.  The swimming pool is indoors and not real big but worked great for us.  It is one of the view places we have stayed that had great lights in the bathroom .  You could see enough to pluck your eye brows and put you make up on.  Our family got in a discussion with how old the place was . So many things made it look new but the landscaping looked fully mature.  Also we were able to walk to resturants and  grocery stores and Wal-greens are right down the street.Our family had 6 rooms and and 17 people and we all loved it .Great job American Value Inn on FM 1960. [--]More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r19075740-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>19075740</t>
+  </si>
+  <si>
+    <t>08/18/2008</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!!!!!</t>
+  </si>
+  <si>
+    <t>We overlooked that the room was very outdated and smelt of an old stale house becasue we knew that it was cheap. Then things got worse...We found a dead roach in the tub then after removing roach we found that the drain was blocked by an old used condom! If things were not bad enough we found small bugs stuck to our towels. I requested new linens that after noon. Upon our return it looked as though they had replaced the linnens. The next morning we found a dead ROACH in our bed that we had just slept in!! This only proves that they do not replace their linnens even after we had complained about the bugs! The owner/manager just had excuses!! It was the worst stay that i have ever had anywhere!!! The pool was full of green water and after it rained the parking lot filled up with water. The rooms are kept with the air off and they do not clean floors or anything in this place. One word to sum this up DISGUSTING!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>We overlooked that the room was very outdated and smelt of an old stale house becasue we knew that it was cheap. Then things got worse...We found a dead roach in the tub then after removing roach we found that the drain was blocked by an old used condom! If things were not bad enough we found small bugs stuck to our towels. I requested new linens that after noon. Upon our return it looked as though they had replaced the linnens. The next morning we found a dead ROACH in our bed that we had just slept in!! This only proves that they do not replace their linnens even after we had complained about the bugs! The owner/manager just had excuses!! It was the worst stay that i have ever had anywhere!!! The pool was full of green water and after it rained the parking lot filled up with water. The rooms are kept with the air off and they do not clean floors or anything in this place. One word to sum this up DISGUSTING!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r6005743-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6005743</t>
+  </si>
+  <si>
+    <t>10/23/2006</t>
+  </si>
+  <si>
+    <t>Wonderful is all i can say</t>
+  </si>
+  <si>
+    <t>Wonderful hotel. The owner/ manager was excellent. Very clean, good hot breakfast, nice staff and very quite at night. They made a very rainy 3 days enjoyable.Their handicaped rooms were very spacey and were designed perfectly for a wheelchair.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1163,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1195,2039 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_8.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r599110207-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>239356</t>
+  </si>
+  <si>
+    <t>599110207</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>will be better</t>
+  </si>
+  <si>
+    <t>overall a comfortable and affordable place t o stay.  in the process of remodeling. i think.  carpeting was being removed and replaced.  workers polite, courteous and quiet.  only way to know they were there was the furniture from the rooms being worked on was stacked neatly in the hall (already with new flooring) with minimal congestion.  Maid service okay.  no definite time when they may come by.  not great at attention to detail.  lamp fixture base dusty on arrival and most likely still is.  laundry on site reasonally priced,$3.  only one washer dryer on first floor.  when hotel filled up, not easy to access,  pool temp good, water a bit cloudy.  hot tub starts cool and heats up to moderately hot.   very comfortable to sit in for 15 minutes.  front staff helpful and courteous, although a bit more flexibility in check in times would be nice.  showed up early after flying all night and early staff (8am) said not until two.  fell asleep in car with temps on the way to 100f.  fortunately rental had ac, and we only half baked.  at ten different front desk   checked us in.  did not see upper floors.  bathroom  clean but in need of minor baseboard repair.  toilet mounted at a bit of an angle.  would stay again.  centrally located to our venue, many diverse local restaurants, taco stands and fast food establishments less than five to ten minutes away (taco bell and burger...overall a comfortable and affordable place t o stay.  in the process of remodeling. i think.  carpeting was being removed and replaced.  workers polite, courteous and quiet.  only way to know they were there was the furniture from the rooms being worked on was stacked neatly in the hall (already with new flooring) with minimal congestion.  Maid service okay.  no definite time when they may come by.  not great at attention to detail.  lamp fixture base dusty on arrival and most likely still is.  laundry on site reasonally priced,$3.  only one washer dryer on first floor.  when hotel filled up, not easy to access,  pool temp good, water a bit cloudy.  hot tub starts cool and heats up to moderately hot.   very comfortable to sit in for 15 minutes.  front staff helpful and courteous, although a bit more flexibility in check in times would be nice.  showed up early after flying all night and early staff (8am) said not until two.  fell asleep in car with temps on the way to 100f.  fortunately rental had ac, and we only half baked.  at ten different front desk   checked us in.  did not see upper floors.  bathroom  clean but in need of minor baseboard repair.  toilet mounted at a bit of an angle.  would stay again.  centrally located to our venue, many diverse local restaurants, taco stands and fast food establishments less than five to ten minutes away (taco bell and burger king just across the parking lot!).  Shopping mall 15 - 20 minutes away.  FM1960 to Lee beats all the toll roads to IAH and adds 3-4 minutes of travel time..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>overall a comfortable and affordable place t o stay.  in the process of remodeling. i think.  carpeting was being removed and replaced.  workers polite, courteous and quiet.  only way to know they were there was the furniture from the rooms being worked on was stacked neatly in the hall (already with new flooring) with minimal congestion.  Maid service okay.  no definite time when they may come by.  not great at attention to detail.  lamp fixture base dusty on arrival and most likely still is.  laundry on site reasonally priced,$3.  only one washer dryer on first floor.  when hotel filled up, not easy to access,  pool temp good, water a bit cloudy.  hot tub starts cool and heats up to moderately hot.   very comfortable to sit in for 15 minutes.  front staff helpful and courteous, although a bit more flexibility in check in times would be nice.  showed up early after flying all night and early staff (8am) said not until two.  fell asleep in car with temps on the way to 100f.  fortunately rental had ac, and we only half baked.  at ten different front desk   checked us in.  did not see upper floors.  bathroom  clean but in need of minor baseboard repair.  toilet mounted at a bit of an angle.  would stay again.  centrally located to our venue, many diverse local restaurants, taco stands and fast food establishments less than five to ten minutes away (taco bell and burger...overall a comfortable and affordable place t o stay.  in the process of remodeling. i think.  carpeting was being removed and replaced.  workers polite, courteous and quiet.  only way to know they were there was the furniture from the rooms being worked on was stacked neatly in the hall (already with new flooring) with minimal congestion.  Maid service okay.  no definite time when they may come by.  not great at attention to detail.  lamp fixture base dusty on arrival and most likely still is.  laundry on site reasonally priced,$3.  only one washer dryer on first floor.  when hotel filled up, not easy to access,  pool temp good, water a bit cloudy.  hot tub starts cool and heats up to moderately hot.   very comfortable to sit in for 15 minutes.  front staff helpful and courteous, although a bit more flexibility in check in times would be nice.  showed up early after flying all night and early staff (8am) said not until two.  fell asleep in car with temps on the way to 100f.  fortunately rental had ac, and we only half baked.  at ten different front desk   checked us in.  did not see upper floors.  bathroom  clean but in need of minor baseboard repair.  toilet mounted at a bit of an angle.  would stay again.  centrally located to our venue, many diverse local restaurants, taco stands and fast food establishments less than five to ten minutes away (taco bell and burger king just across the parking lot!).  Shopping mall 15 - 20 minutes away.  FM1960 to Lee beats all the toll roads to IAH and adds 3-4 minutes of travel time..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r594131551-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594131551</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>Nice place, but in need of a good interior designer. Rooms are big, but the colors of bed cover, courtains, and rugs are so dark that affect my mood. The furnitures need to be replaced or restaured. Do not expect a great breakfast. The service was the best part of the hotel.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r586943263-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>239356</t>
-  </si>
-  <si>
     <t>586943263</t>
   </si>
   <si>
@@ -195,9 +234,6 @@
     <t>The good: Staffs (front desk/reception and room service) were very nice and willing to help. The not so good: Room was in poor condition: uneven and smelly carpet, stains on the floor and the recliner. The hallway was full of smoking smell. The beds were very uncomfortable. I could not sleep well as it was shaking badly if me or my wife moved or change the posture. The uncomfortable: they charged my card prior to my arrival without contacting me for my approval, although the booking confirmation did state clearly that they could only charge my card when I check in!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r583349346-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -219,6 +255,36 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r583344446-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583344446</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>We had leftovers from our outing...There was no small refrigerator in the room...We understood the construction but I had to g to the first floor for ice.....elevator was hot no air circulating. The staff was very friendly and willing to assist.....Thank you  for the stay.......</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r574357184-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574357184</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>We chose this hotel because our son was having surgery at the Northwest Medical Center not knowing anything about either place. The accommodations were excellent, the room was large and very clean. The staff very friendly and there was always someone t the front desk. Small but adequate breakfast available.  We would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r567888066-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -267,6 +333,42 @@
     <t>The room itself wasn't horrible. Decent enough but the service was HORRIBLE. The overnight staff, a middle aged man that wore a blue shirt was disrespectful, refused to recode our cards when they wouldn't work for our rooms making us have to wait for the next person on shift, wouldn't give us clean towels for the pool or our personal room ( we stayed 2 nights and after the first night needed new personal towels ) and when told that we wouldn't leave a good review due to the lack of hospitality and service he said he was fine with that. We were here out of state working and every other hotel was wonderful. This is honestly the worst hotel experience. Would not recommend at all. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r561869666-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561869666</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Ok hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The check in was a breeze. The room was clean, can use updating especially the carpet. There was a roach crawling on the cereal dispenser when we tried to have breakfast. We ended up eating at a restaurant instead. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r552298783-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>552298783</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Not a good place to stay if you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People at front desk seemed racist. They were very unfriendly and couldn’t even speak fluent English. Made my stay unpleasant. I didn’t pay much for the night but i expected to be treated decent which i was not. The worker at the front desk got upset at one time because i was getting coffe which there we no signs telling me not to. Rediculous. Will Not be recommending this place to anyone. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r548626501-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,6 +423,39 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r497028292-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497028292</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>I stay here every time that I am in Houston.</t>
+  </si>
+  <si>
+    <t>Nice price. Comfortable rooms. Breakfast available. Also different rates such as AARP, Military and Value club. There is also and indoor pool and hot tub. There is plenty of restaurants as well as shopping.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r495528118-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495528118</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>so-so</t>
+  </si>
+  <si>
+    <t>The place looked like it hadn't been updated since it was originally built. There were cracks in the wall the carpet was fairly worn, the television was small , the bed was noisy and the hot water didn't get very hot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r410534068-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -390,6 +525,45 @@
     <t>The room we had was at the back of the hotel and it was quiet.  The room was spacious and clean but the decor was a bit tired.  This was our first visit to the USA and the staff of the hotel were very friendly and helpful; giving advice and ordering taxis for us. The included breakfast was a bit limited in range but adequate.  The pool and the jaccussi  were fine.My only problem was that the hotel is a bit isolated unless you have a car.  Although that seemed true for most of Houston!  Perhaps we were a bit naive thinking that we would be able to walk to places.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r360085969-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360085969</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Funtional.... That's it</t>
+  </si>
+  <si>
+    <t>The breakfast until 9, very early. Just sweet food, no eegs, beans, sausage.The indoor Jackusi was good, the pool was cold.The room nothing especial but ok, no failures, just minor wear out.Cleaning service ok. Nothing lost or stolen. It is very far from downtime, but close to the airport.Is close to a lot of restaurants and highways.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r348084247-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348084247</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>REVOLTING! DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>This is the kind of hotel room where you don't want to touch anything. Grossest dive hotel I've possibly ever stayed in. Paint peeling off the walls, curtains fallen down, boxy little tv, dirty armchair, writing in sharpy on the bedsheets, bumpy springy bed, strong smell of cigarettes in our "non-smoking" room. In the morning housekeeping knocked on our door SEVEN different times no matter how much we asked them to go away. I feel sad and ripped off that I spent money on staying at such a disgusting dive. MoreShow less</t>
+  </si>
+  <si>
+    <t>sam p, Manager at Americas Best Value Inn &amp; Suites Houston FM 1960/I-45, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>This is the kind of hotel room where you don't want to touch anything. Grossest dive hotel I've possibly ever stayed in. Paint peeling off the walls, curtains fallen down, boxy little tv, dirty armchair, writing in sharpy on the bedsheets, bumpy springy bed, strong smell of cigarettes in our "non-smoking" room. In the morning housekeeping knocked on our door SEVEN different times no matter how much we asked them to go away. I feel sad and ripped off that I spent money on staying at such a disgusting dive. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r294718423-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -457,6 +631,42 @@
   </si>
   <si>
     <t>We were on a visit to Houston for a week and wanted to stay some where in FM1960 that had strong internet, safe and accessible place. Upon reading reviews I had a second thought about it but still decided to go with it..Here is what i found.&gt;&gt; PROS1. Its gated with two gates(they were open most of time) with security camera's2. Clean parking slot with enough parking space.3. Rooms are ok and spacious.4. When you book for a week you get a good deal.5. The area is safe and lot of restaurants around (you name it !!).6. Internet connection is SUPER STRONG and never got disconnected as I was working remote for a week.&gt;&gt;CONS1. Breakfast is not good or they way its arranged is shabby. All six days we had the same items.So summing it up I would say the best part is its worth the money you spend for such a place considering safety and accessibility when you are new in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r239931206-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239931206</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Awful!!!!</t>
+  </si>
+  <si>
+    <t>Stranded at the airport and sent to this place by the airline. The room felt dirty and moldy. The barest minimum of soap and towels. Uncomfortable night!! Sitting at the airport would have been better!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r237498585-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237498585</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Good for One Night Only</t>
+  </si>
+  <si>
+    <t>I booked this room because I  was out here on business and was too tired to drive back home. Upon checking in the guy at the front desk was not friendly at all. I got my key and headed straight to my room. When I opened the door there was a terrible smell in the room, so I turned the ac on instantly and sprayed perfume to cover the smell. There was a towel under the ac unit on the floor to catch the water that was leaking from it. The room was very dated and there was a chain on the door as the deadbolt substitute. I did not care as I was very tired and just wanted to sleep. I was going to take a shower but I changed my mind when I saw how dirty and rusty the shower head was. I would never return to this place even if they gave me a free night. The bed was ok (thank goodness). I just slept and ran out of there the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I booked this room because I  was out here on business and was too tired to drive back home. Upon checking in the guy at the front desk was not friendly at all. I got my key and headed straight to my room. When I opened the door there was a terrible smell in the room, so I turned the ac on instantly and sprayed perfume to cover the smell. There was a towel under the ac unit on the floor to catch the water that was leaking from it. The room was very dated and there was a chain on the door as the deadbolt substitute. I did not care as I was very tired and just wanted to sleep. I was going to take a shower but I changed my mind when I saw how dirty and rusty the shower head was. I would never return to this place even if they gave me a free night. The bed was ok (thank goodness). I just slept and ran out of there the next morning.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r229358709-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
@@ -547,6 +757,48 @@
 Parking lot...1st Time at this chain. Have seen many will awe-full reviews, this one had some "decent" reviews from a few senior contributors, so I gambled on a weeks stay.Totally shocked and will be back when in N. Houston.  Great location 30sec from I-45, but not close enough to hear it.Staff incredibly nice to start with. I had an upstairs room for 5 days and it was spotless when I arrived. Sure there are a few maintenance things like paint, chipped corner, but overall the motel is in good shape. Carpet look fine, not dingy.Fridge and microwave in the room where welcome. Plastic toilet lid I didn't care for (it was also only mounted to one side, maint issue)  Hot water was near instant and almost to much pressure, not common even in high $$ hotels.Internet was very fast, even up stairs at the end. BTW 3 story motel and comes with an elevator!!Bed was comfortable on the firm side, which I like, no sag.  Nice 32" LCD TV with Dishnetwork, so easy menu since I use dishn at home.Inside pool I didn't use, but looked at it at several different times, never saw it overflowing with people and it always looked clean.I work nights and sleep days, I never heard another soul once I got in my room and thank goodness, the cleaning staff here knows what "DO NOT DISTURB MEANS"Parking lot has 2 gated entrances and the property is fenced, but I never saw the gates closed, but didnt see any "riff-raff" either. If your pulling a trailer, you will have to park in the Burger King lot, I did with a 30' trailer and had no issues.Tons of food with-in a half mile if you head West from the motel on fm1960, adjacent to the motel is Burger King, Taco Bell and a BBQ place I didn't have time to try. A coupe blocks away are, luby's ,starbucks, Blackeye Pea and too many eateries to listAM breakfast is basic and minimal. Seating is also limited, so in this area they could really improve.I stayed at a corp rate of $55, same as listed on their website and in my opinion, it is a super deal for this property..BTW, I would have no problem if my wife or daughter had to stay here, as long as they where prudent to the hours they are outside (after all, this is still Houston)I also have to say this, since I have been critical in the past of some of the hotels owners "customs". The 2 brothers that own and operate this Motel (Patel's) Seem to take your stay seriously, they are very cordial, helpful as was any staff I came in contact with. They clearly are trying to meet American standards and have done well.I don't know about other hotels in this chain, but because of this one, I will certainly consider them in the future.Save yourself half what others want for less motel, this is a good deal.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r205653868-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205653868</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Mediocre</t>
+  </si>
+  <si>
+    <t>I wasn't expecting much when I had to book a random hotel on hotwire at midnight due to cancelled flights at IAH airport. The hotel was quiet and the bed was reasonable. There was a mini fridge an microwave in the room. The room left a lot to be desired. Old, tired furnishings and walls that could use a coat of paint. Marks, scratches and chips were all over the place in the room. The carpet sounded like you were walking on garbage bags. You can quite clearly hear what the neighbours are talking about in their room since they are connected by a cheap door. The window in my room also looking like it hadn't been cleaned from the outside in years. I avoided the breakfast due to the overall feel of the place but there is a BK and Taco bell in the parking lot to eat. I don't usually stay at 2 star hotels and this made me glad I don't.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I wasn't expecting much when I had to book a random hotel on hotwire at midnight due to cancelled flights at IAH airport. The hotel was quiet and the bed was reasonable. There was a mini fridge an microwave in the room. The room left a lot to be desired. Old, tired furnishings and walls that could use a coat of paint. Marks, scratches and chips were all over the place in the room. The carpet sounded like you were walking on garbage bags. You can quite clearly hear what the neighbours are talking about in their room since they are connected by a cheap door. The window in my room also looking like it hadn't been cleaned from the outside in years. I avoided the breakfast due to the overall feel of the place but there is a BK and Taco bell in the parking lot to eat. I don't usually stay at 2 star hotels and this made me glad I don't.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r197847560-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197847560</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant surprise </t>
+  </si>
+  <si>
+    <t>For the relatively low rate, I was very pleased with the cleanliness of the room and the comfortable bed. Nice flat screen tv, plus microwave and fridge. As I've said in other reviews, it's difficult to find clean, safe and comfortable rooms in large metro areas for a sub $80 rate. This is one. I would not hesitate to stay here again. Fast food within walking distance and they do have an elevator if you have need of one. Well lit and what seems to be safe parking.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>For the relatively low rate, I was very pleased with the cleanliness of the room and the comfortable bed. Nice flat screen tv, plus microwave and fridge. As I've said in other reviews, it's difficult to find clean, safe and comfortable rooms in large metro areas for a sub $80 rate. This is one. I would not hesitate to stay here again. Fast food within walking distance and they do have an elevator if you have need of one. Well lit and what seems to be safe parking.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r196951497-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -601,6 +853,42 @@
     <t>I traveled to Houston without a hotel room booked.  I came across this property at about 12:30 a.m. and checked to see the availability and price.  All they had that was non-smoking was a double queen.  It was about $70 which worked for me since it was so late.  The woman at the reservation desk was very friendly.  I got up to my room expecting to see dirt and bugs.  To my pleasant surprise, the room was quite clean.  It had a really nice flat-screen TV, a desk, couch, table, and dresser.  I was on the second floor, and the window looking outside had two huge spiderweb cracks in it.  Regardless, I felt safe.  The breakfast was limited and the waffles were nasty. I took one bite and spit it out as it tasted like the batter had gone sour.  Bottom-line:  It was last minute, it was relatively clean, nobody bothered me, I slept well, the room was quiet, it was close to a lot of places to eat and shop, and the staff was friendly.  If I was planning a visit to Houston, I would probably look for another place to stay.  If I was in the same situation (last-minute hotel searching) I would make a b-line to this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r156072639-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156072639</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>Rooms clean and quiet, very nice staff, allright breakfast.</t>
+  </si>
+  <si>
+    <t>A nice, very quiet hotel, which is definitely a "plus" in Houston. The hotel is at 3 minutes drive from the highway, but far enough from the main streets so that the rooms are very quiet. The swimming pool is relatively dark, but open until relatively late. The rooms are very clean, and the staff is very nice and helpful. You can choose from bread, bagels, waffles and fruits  for breakfast, which is ok, although the breakfast room is very small and if the hotel is full you might have to share a table. Anyway, a good value for the price.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r155202186-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155202186</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>PERFECT FOR FAMILY TRIPS....</t>
+  </si>
+  <si>
+    <t>The first thing that drew me to this hotel was the price.  Second, the fact that it had an indoor pool and hot tub.  Third, the location (15 minutes away from the houston zoo and the downtown aquarium).  The room is a regular room, but we only used the room to sleep anyway.  In the day we were out and about enjoying the city.   On the way "home", we would grab something to eat (walking distance to a lot of different foods and shops), and spend our night in the pool/hot tub area.  The pool and hot tub were exceptionally clean, and were a great way to wind down from all that walking each day.  We woke up to breakfast downstairs each morning, and then back off to the poolside that opened at 7am.  I stayed 2 days during spring break, and wish I would have booked for longer.  I would definitely reccommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The first thing that drew me to this hotel was the price.  Second, the fact that it had an indoor pool and hot tub.  Third, the location (15 minutes away from the houston zoo and the downtown aquarium).  The room is a regular room, but we only used the room to sleep anyway.  In the day we were out and about enjoying the city.   On the way "home", we would grab something to eat (walking distance to a lot of different foods and shops), and spend our night in the pool/hot tub area.  The pool and hot tub were exceptionally clean, and were a great way to wind down from all that walking each day.  We woke up to breakfast downstairs each morning, and then back off to the poolside that opened at 7am.  I stayed 2 days during spring break, and wish I would have booked for longer.  I would definitely reccommend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r153080631-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -655,6 +943,45 @@
     <t>If you are looking for a clean and cheap room, this is it. Thin sheets, no shampoo,  but cold air. Was afraid to use swimming pool. Security cameras in parking lot were shot out.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r132966916-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132966916</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>No longer "Americas Worst"</t>
+  </si>
+  <si>
+    <t>I came here for a business trip &amp; stayed here with low expectations. I was greatly surprised though. The hotel staff was very friendly. I arrived at 2 am &amp; had to be at a meeting downtown 5 hours early. The staff was kind enough to give me a wake-up call.Breakfast was small, but better than most Americas Best with Waffles, pastries, fruits &amp; juice. They gave me an extended checkout.Wi-Fi worked good. Rooms are large. Flat screen TV. Ended up staying an extra night. Great motel for people on a budget. In a good safe area too. Has an indoor pool which I didnt use.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r129287091-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129287091</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>only if despirate</t>
+  </si>
+  <si>
+    <t>i ended up booking here simply becuase i couldnt find any opening anywhere else for that particular day i need and happened to be in the area.  As far as clenleness if overall is good.  But many things didnt work in the room...lamp did not turn on.Wireless Wifi extremely slow...i actually gave up after trying several time..coulnt get anything done.i couldnt charge my laptop, many power outlets were out, not funtioning.Phone in room, handset doesnt work. Only can get a dial tone if put on speaker phone. matress unconfortable to sleep on.  I only had about 5hrs of some sleep.  Would not call it cnfortable sleep.when you call in, people are rude...they need to train these employess a new concept, called courtesy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>i ended up booking here simply becuase i couldnt find any opening anywhere else for that particular day i need and happened to be in the area.  As far as clenleness if overall is good.  But many things didnt work in the room...lamp did not turn on.Wireless Wifi extremely slow...i actually gave up after trying several time..coulnt get anything done.i couldnt charge my laptop, many power outlets were out, not funtioning.Phone in room, handset doesnt work. Only can get a dial tone if put on speaker phone. matress unconfortable to sleep on.  I only had about 5hrs of some sleep.  Would not call it cnfortable sleep.when you call in, people are rude...they need to train these employess a new concept, called courtesy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r119222602-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
   </si>
   <si>
@@ -710,6 +1037,45 @@
   </si>
   <si>
     <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r60213593-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60213593</t>
+  </si>
+  <si>
+    <t>04/02/2010</t>
+  </si>
+  <si>
+    <t>Great value and good staff</t>
+  </si>
+  <si>
+    <t>The hotel room was clean and the staff was great. I would stay again. It is close to the airport. About a 15 minute trip.   It is also close to may good stores for shopping and some great restaurants close by.  I like that it is right on the feeder of I-45 and it is a short ride to The Woodlands and very close to the Beltway 8.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r57516109-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>57516109</t>
+  </si>
+  <si>
+    <t>03/02/2010</t>
+  </si>
+  <si>
+    <t>Great value and location for airport</t>
+  </si>
+  <si>
+    <t>Wanted hotel short drive from airport as I didn't want to start my trip in the dark having just flown for 10 hours.What a great choice, just 20 minutes drive from the airport and will use again as arrival and departure hotel.I booked direct online and got a great rate, staff were very helpful, room was spacious and clean, free Wi-Fi, free parking, good choice at breakfast.Indoor swimming pool and Jacuzzi was a real bonus.Room was large and clean, but Jacuzzi bath did not work which was a shame. Free parking, and there are a plenty of restaurants just outside and within walking distance plus even more just five minutes drive away as well as shops.Did not have a noise problem in the room and the breakfast was just right, cereals, waffles, coffee, fruit juice, bagels etc.Distance from Downtown Houston by car is about 40 minutes at the peak rush hour and even quicker outside of the peak times.No problem recommending and will use again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>Wanted hotel short drive from airport as I didn't want to start my trip in the dark having just flown for 10 hours.What a great choice, just 20 minutes drive from the airport and will use again as arrival and departure hotel.I booked direct online and got a great rate, staff were very helpful, room was spacious and clean, free Wi-Fi, free parking, good choice at breakfast.Indoor swimming pool and Jacuzzi was a real bonus.Room was large and clean, but Jacuzzi bath did not work which was a shame. Free parking, and there are a plenty of restaurants just outside and within walking distance plus even more just five minutes drive away as well as shops.Did not have a noise problem in the room and the breakfast was just right, cereals, waffles, coffee, fruit juice, bagels etc.Distance from Downtown Houston by car is about 40 minutes at the peak rush hour and even quicker outside of the peak times.No problem recommending and will use again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d239356-r38160089-Americas_Best_Value_Inn_Suites_Houston_FM_1960_I_45-Houston_Texas.html</t>
@@ -1304,7 +1670,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1313,20 +1679,20 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1334,7 +1700,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1350,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1359,37 +1725,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1401,7 +1767,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1438,7 +1804,7 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>65</v>
@@ -1447,20 +1813,20 @@
         <v>66</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1505,25 +1871,25 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1551,50 +1917,50 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1602,7 +1968,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1618,7 +1984,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1627,41 +1993,41 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
         <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1712,7 +2078,7 @@
         <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1773,29 +2139,29 @@
         <v>93</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
         <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1840,20 +2206,30 @@
         <v>99</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1876,58 +2252,58 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
         <v>102</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>103</v>
       </c>
-      <c r="K11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" t="s">
-        <v>105</v>
-      </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
         <v>66</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
       <c r="R11" t="n">
         <v>3</v>
       </c>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>107</v>
-      </c>
-      <c r="X11" t="s">
-        <v>108</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1943,48 +2319,58 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>110</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>115</v>
-      </c>
       <c r="O12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -2000,7 +2386,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2009,37 +2395,41 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
         <v>66</v>
       </c>
-      <c r="P13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2047,7 +2437,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -2063,7 +2453,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2072,39 +2462,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
@@ -2120,7 +2520,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2129,25 +2529,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2155,8 +2555,12 @@
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2164,14 +2568,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>137</v>
-      </c>
-      <c r="X15" t="s">
-        <v>138</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -2187,7 +2587,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2196,45 +2596,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -2250,7 +2644,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2259,49 +2653,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>153</v>
-      </c>
-      <c r="X17" t="s">
-        <v>154</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
@@ -2317,7 +2711,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2326,49 +2720,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>161</v>
-      </c>
-      <c r="X18" t="s">
-        <v>162</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2384,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2393,53 +2787,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="X19" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
@@ -2455,7 +2845,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2464,45 +2854,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2518,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2527,31 +2911,31 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
         <v>5</v>
       </c>
@@ -2565,7 +2949,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
@@ -2581,7 +2965,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2590,49 +2974,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -2648,7 +3022,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2657,49 +3031,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>179</v>
+      </c>
+      <c r="X23" t="s">
+        <v>180</v>
+      </c>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
@@ -2715,7 +3079,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2724,45 +3088,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
@@ -2778,7 +3136,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2787,45 +3145,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>195</v>
+      </c>
+      <c r="X25" t="s">
+        <v>196</v>
+      </c>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
@@ -2841,7 +3203,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2850,37 +3212,33 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -2892,7 +3250,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
@@ -2908,7 +3266,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2917,49 +3275,39 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
@@ -2975,7 +3323,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2984,49 +3332,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>195</v>
+      </c>
+      <c r="X28" t="s">
+        <v>196</v>
+      </c>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
@@ -3042,7 +3388,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3051,38 +3397,34 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3090,10 +3432,14 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>223</v>
+      </c>
+      <c r="X29" t="s">
+        <v>224</v>
+      </c>
       <c r="Y29" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -3109,7 +3455,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3118,26 +3464,22 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
-      <c r="N30" t="s">
-        <v>238</v>
-      </c>
-      <c r="O30" t="s">
-        <v>213</v>
-      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
         <v>1</v>
       </c>
@@ -3145,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3157,10 +3499,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>231</v>
+      </c>
+      <c r="X30" t="s">
+        <v>232</v>
+      </c>
       <c r="Y30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -3176,7 +3522,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3185,37 +3531,37 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
         <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3224,10 +3570,1336 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>231</v>
+      </c>
+      <c r="X31" t="s">
+        <v>232</v>
+      </c>
       <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
         <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>231</v>
+      </c>
+      <c r="X32" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>231</v>
+      </c>
+      <c r="X33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>262</v>
+      </c>
+      <c r="J35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" t="s">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s">
+        <v>265</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>161</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>274</v>
+      </c>
+      <c r="J37" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="s">
+        <v>277</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>278</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J38" t="s">
+        <v>281</v>
+      </c>
+      <c r="K38" t="s">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s">
+        <v>283</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>278</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" t="s">
+        <v>287</v>
+      </c>
+      <c r="K39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>293</v>
+      </c>
+      <c r="J40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>308</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>310</v>
+      </c>
+      <c r="J43" t="s">
+        <v>311</v>
+      </c>
+      <c r="K43" t="s">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s">
+        <v>313</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>314</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>316</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
+        <v>318</v>
+      </c>
+      <c r="K44" t="s">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s">
+        <v>320</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>321</v>
+      </c>
+      <c r="O44" t="s">
+        <v>322</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>323</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>324</v>
+      </c>
+      <c r="J45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" t="s">
+        <v>326</v>
+      </c>
+      <c r="L45" t="s">
+        <v>327</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J46" t="s">
+        <v>331</v>
+      </c>
+      <c r="K46" t="s">
+        <v>332</v>
+      </c>
+      <c r="L46" t="s">
+        <v>333</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>334</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>336</v>
+      </c>
+      <c r="J47" t="s">
+        <v>337</v>
+      </c>
+      <c r="K47" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>340</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" t="s">
+        <v>344</v>
+      </c>
+      <c r="L48" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>346</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>353</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J50" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" t="s">
+        <v>359</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>360</v>
+      </c>
+      <c r="O50" t="s">
+        <v>322</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39060</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>362</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>363</v>
+      </c>
+      <c r="J51" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" t="s">
+        <v>365</v>
+      </c>
+      <c r="L51" t="s">
+        <v>366</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>367</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
